--- a/Documents/Excel-Files/weboc_data.xlsx
+++ b/Documents/Excel-Files/weboc_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,17 +473,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rbd palm olein cp-10HsCode :  1511.9030,Unit Value  1.0447  US $</t>
+          <t>Rbd palm olein (in bulk)
+contract date. 07.06.2024
+avg reuter price u$.888.75 + reuter u$. 25 = total us$. 913.75 p.m.tonsHsCode :  1511.9030,Unit Value  0.9300  US $</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.0447  US $</t>
+          <t>0.9300  US $</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Rbd palm olein cp-10</t>
+          <t xml:space="preserve">Rbd palm olein </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -493,7 +495,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>14-11-2024</t>
+          <t>25-11-2024</t>
         </is>
       </c>
     </row>
@@ -505,27 +507,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rbd palm olein cp-8HsCode :  1511.9030,Unit Value  1.0000  US $</t>
+          <t>Rbd palm olein in bulk 
+invoice $ 977/50/- pvma reuter fob $ 897/50/-fright $ 25/- total c&amp;f $ 922/50/- pmtHsCode :  1511.9030,Unit Value  0.9775  US $</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.0000  US $</t>
+          <t>0.9775  US $</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Rbd palm olein cp-8</t>
+          <t>Rbd palm olein in bulk 
+invoice $ 977/50/- pvma reuter fob $ 897/50/-fright $ 25/- total c&amp;f $ 922/50/- pmt</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>14-11-2024</t>
+          <t>25-11-2024</t>
         </is>
       </c>
     </row>
@@ -538,18 +542,18 @@
       <c r="B4" t="inlineStr">
         <is>
           <t>Rbd palm olein in bulk 
-invoice $ 975/-pvma reuter fob $ 912/50/- fright $ 25/- total c&amp;f $ 937/50/- pmtHsCode :  1511.9030,Unit Value  0.9750  US $</t>
+invoice $ 910/- pvma reuter fob $ 927.50/-fright $ 25/- total c&amp;f $ 952.50/- pmtHsCode :  1511.9030,Unit Value  0.9525  US $</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.9750  US $</t>
+          <t>0.9525  US $</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>Rbd palm olein in bulk 
-invoice $ 975/-pvma reuter fob $ 912/50/- fright $ 25/- total c&amp;f $ 937/50/- pmt</t>
+invoice $ 910/- pvma reuter fob $ 927</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -559,7 +563,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>14-11-2024</t>
+          <t>25-11-2024</t>
         </is>
       </c>
     </row>
@@ -571,27 +575,2131 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rbd palm olein in bulk (avg reuters us$: 852.50 + freight us$: 25 = us$: 877.50 pmt dv us$: 915.00 pmt)HsCode :  1511.9030,Unit Value  0.9150  US $</t>
+          <t>Rbd palm olein in bulk 
+invoice $ 922/50- pvma reuter fob $ 894/50/- fright $ 25/- total c&amp;f $ 919/50/- pmtHsCode :  1511.9030,Unit Value  0.9225  US $</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.9150  US $</t>
+          <t>0.9225  US $</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>Rbd palm olein in bulk 
+invoice $ 922/50- pvma reuter fob $ 894/50/- fright $ 25/- total c&amp;f $ 919/50/- pmt</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk 
+invoice $ 922/50- pvma reuter fob $ 894/50/- fright $ 25/- total c&amp;f $ 919/50/- pmtHsCode :  1511.9030,Unit Value  0.9225  US $</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.9225  US $</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk 
+invoice $ 922/50- pvma reuter fob $ 894/50/- fright $ 25/- total c&amp;f $ 919/50/- pmt</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk 
+invoice $ 925/- pvma reuter fob $ 867/50/- fright $ 25/- total c&amp;f $ 892/50/- pmtHsCode :  1511.9030,Unit Value  0.9250  US $</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0.9250  US $</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk 
+invoice $ 925/- pvma reuter fob $ 867/50/- fright $ 25/- total c&amp;f $ 892/50/- pmt</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk 
+invoice $ 970/- pvma reuter fob $ 898/75 fright $ 25/- total c&amp;f $ 923/75 pmtHsCode :  1511.9030,Unit Value  0.9700  US $</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0.9700  US $</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk 
+invoice $ 970/- pvma reuter fob $ 898/75 fright $ 25/- total c&amp;f $ 923/75 pmt</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk 
+invoice $ 970/- pvma reuter fob $ 898/75 fright $ 25/- total c&amp;f $ 923/75 pmtHsCode :  1511.9030,Unit Value  0.9700  US $</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.9700  US $</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk 
+invoice $ 970/- pvma reuter fob $ 898/75 fright $ 25/- total c&amp;f $ 923/75 pmt</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Rbd palm olein (in bulk) 
+contract date: 10/11/2023.	
+avg reuter price us$: 820.50 freight: 25 = 845.50/- pmt.HsCode :  1511.9030,Unit Value  0.8740  US $</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.8740  US $</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rbd palm olein </t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Rbd palm olein (in bulk) 
+contract date: 11/06/2024 
+avg reuter price us$:877.50 + freight: 25 = 902.50/- pmt.HsCode :  1511.9030,Unit Value  0.9200  US $</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.9200  US $</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rbd palm olein </t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Rbd palm olein (in bulk) 
+contract date: 23/04/2024 
+avg reuter price us$: 900/- fright u$+25 = 925/- pmt...HsCode :  1511.9030,Unit Value  0.9270  US $</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0.9270  US $</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rbd palm olein </t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Rbd palm olein (in bulk) 
+contract date: 26/12/2023 
+avg reuter price us$: 832.50 + freight: 25 = 857.50/- pmt.HsCode :  1511.9030,Unit Value  0.8725  US $</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0.8725  US $</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rbd palm olein </t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk (avg reuter us$: 880 + fright us$: 25 = us$: 905 pmt dv us$: 922.50 pmt)HsCode :  1511.9030,Unit Value  0.9225  US $</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0.9225  US $</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t xml:space="preserve">Rbd palm olein in bulk </t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Indonesia</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>14-11-2024</t>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk (avg reuter us$: 882.50 + freight us$: 25 = us$: 907.50 pmt dv us$: 933 pmt)HsCode :  1511.9030,Unit Value  0.9330  US $</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0.9330  US $</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rbd palm olein in bulk </t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Rbd palm olein (in bulk) 
+contract date:23/04/2024 
+avg reuter price us$:900 fright u$.25 = 925/- pmt...HsCode :  1511.9030,Unit Value  0.9270  US $</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0.9270  US $</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rbd palm olein </t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk (avg reuter us$: 911.25 + freight us$: 25 = us$: 936.25 pmt dv us$: 959 pmt)HsCode :  1511.9030,Unit Value  0.9590  US $</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0.9590  US $</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rbd palm olein in bulk </t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk dv inv=895 mt (router price.842.50+842.50=1680/2=842.50+25=867.50)HsCode :  1511.9030,Unit Value  0.8950  US $</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0.8950  US $</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rbd palm olein in bulk dv inv=895 mt </t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk dv inv=895 mt (router price.842.50+842.50=1680/2=842.50+25=867.50)HsCode :  1511.9030,Unit Value  0.8950  US $</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0.8950  US $</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rbd palm olein in bulk dv inv=895 mt </t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Rbd palm olein invoice value 920 us$ pvma reuter value 921.25 us$- pmt. reuter is higher then invoice .HsCode :  1511.9030,Unit Value  0.9212  US $</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0.9212  US $</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Rbd palm olein invoice value 920 us$ pvma reuter value 921</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk
+invoice $ 931/- pvma reuter fob $ 882/50/- fright $ 25/- total c&amp;f $ 907/50/- pmtHsCode :  1511.9030,Unit Value  0.9310  US $</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0.9310  US $</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk
+invoice $ 931/- pvma reuter fob $ 882/50/- fright $ 25/- total c&amp;f $ 907/50/- pmt</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>R.b.d palm olein in bulk.
+invoice value us $ 932.50.
+ruter price us $ 878.25 + freight us $ 25.00 = total value us $ 903.25.HsCode :  1511.9030,Unit Value  0.9325  US $</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0.9325  US $</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk 
+invoice $ 910/- pvma reuter fob $ 927.50/- fright $ 25/- total c&amp;f $ 952.50/-pmtHsCode :  1511.9030,Unit Value  0.9525  US $</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0.9525  US $</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk 
+invoice $ 910/- pvma reuter fob $ 927</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk 
+invoice $ 920/- pvma reuter fob $ 877/50/-fright $ 25/- total c&amp;f $ 902/50- pmtHsCode :  1511.9030,Unit Value  0.9200  US $</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0.9200  US $</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk 
+invoice $ 920/- pvma reuter fob $ 877/50/-fright $ 25/- total c&amp;f $ 902/50- pmt</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk 
+invoice $ 920/- pvma reuter fob $ 877/50/-fright $ 25/- total c&amp;f $ 902/50- pmtHsCode :  1511.9030,Unit Value  0.9200  US $</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0.9200  US $</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk 
+invoice $ 920/- pvma reuter fob $ 877/50/-fright $ 25/- total c&amp;f $ 902/50- pmt</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk 
+invoice $ 920/- pvma reuter fob $ 877/50/-fright $ 25/- total c&amp;f $ 902/50/- pmtHsCode :  1511.9030,Unit Value  0.9200  US $</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0.9200  US $</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk 
+invoice $ 920/- pvma reuter fob $ 877/50/-fright $ 25/- total c&amp;f $ 902/50/- pmt</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk 
+invoice $ 922/50/- pvma reuter fob $ 867/50/- fright $ 25/- total c&amp;f $ 892/50/- pmtHsCode :  1511.9030,Unit Value  0.9225  US $</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0.9225  US $</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk 
+invoice $ 922/50/- pvma reuter fob $ 867/50/- fright $ 25/- total c&amp;f $ 892/50/- pmt</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk 
+invoice $ 922/50/- pvma reuter fob $ 867/50/-fright $ 25/- total c&amp;f $ 892/50/- pmtHsCode :  1511.9030,Unit Value  0.9225  US $</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0.9225  US $</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk 
+invoice $ 922/50/- pvma reuter fob $ 867/50/-fright $ 25/- total c&amp;f $ 892/50/- pmt</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk. invoice us$ 920.00 pmt. pvma reuter fob: us$ 877.50 + freight us$ 25 total c&amp;f us$ 902.50 pmt.HsCode :  1511.9030,Unit Value  0.9200  US $</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0.9200  US $</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk. invoice us$ 922.50 pmt. pvma reuter fob: us$ 880.00 + freight us$ 25 total c&amp;f us$ 905.00 pmt.HsCode :  1511.9030,Unit Value  0.9225  US $</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0.9225  US $</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Rbd palm olein value 890 us$ pvma reuter value 876.25 us$- pmt. invoice is higher then reuter.HsCode :  1511.9030,Unit Value  0.8900  US $</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0.8900  US $</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Rbd palm olein value 890 us$ pvma reuter value 876</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk 
+invoice $ 923/- pvma reuetr fob $ 935/- fright $ 25/- total c&amp;f $ 960/- pmtHsCode :  1511.9030,Unit Value  0.9600  US $</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0.9600  US $</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk 
+invoice $ 923/- pvma reuetr fob $ 935/- fright $ 25/- total c&amp;f $ 960/- pmt</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk 
+invoice $ 927/- pvma reuter fob $ 900/- fright $ 25/- total c&amp;f $ 925/- pmtHsCode :  1511.9030,Unit Value  0.9270  US $</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0.9270  US $</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk 
+invoice $ 927/- pvma reuter fob $ 900/- fright $ 25/- total c&amp;f $ 925/- pmt</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk 
+invoice $ 927/50/- pvma reuter fob $ 877/- fright $ 25/- total c&amp;f $ 902/- pmtHsCode :  1511.9030,Unit Value  0.9275  US $</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0.9275  US $</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk 
+invoice $ 927/50/- pvma reuter fob $ 877/- fright $ 25/- total c&amp;f $ 902/- pmt</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>R.b.d palm olein in bulk.
+invoice value us $ 930.00.
+ruter price us $ 882.50 + freight us $ 25.00 = total value us $ 907.50.HsCode :  1511.9030,Unit Value  0.9300  US $</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0.9300  US $</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>R.b.d palm olein in bulk.
+invoice value us $ 925.00.
+ruter price us $ 877.75 + freight us $ 25.00 = total value us $ 902.75.HsCode :  1511.9030,Unit Value  0.9250  US $</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0.9250  US $</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>R.b.d palm olein in bulk.
+invoice value us $ 925.00.
+ruter price us $ 877.75 + freight us $ 25.00 = total value us $ 902.75.HsCode :  1511.9030,Unit Value  0.9250  US $</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0.9250  US $</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>R.b.d palm olein in bulk.
+invoice value us $ 930.00.
+ruter price us $ 882.50 + freight us $ 25.00 = total value us $ 907.50.HsCode :  1511.9030,Unit Value  0.9300  US $</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0.9300  US $</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk 
+invoice $ 922/50- pvma reuter fob $ 894/50/- fright $ 25/- total c&amp;f $ 919/50/- pmtHsCode :  1511.9030,Unit Value  0.9225  US $</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0.9225  US $</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk 
+invoice $ 922/50- pvma reuter fob $ 894/50/- fright $ 25/- total c&amp;f $ 919/50/- pmt</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk 
+invoice $ 921/- pvma reuter fob $ 880/- fright $ 25/- total c&amp;f $ 905/- pmtHsCode :  1511.9030,Unit Value  0.9210  US $</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0.9210  US $</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk 
+invoice $ 921/- pvma reuter fob $ 880/- fright $ 25/- total c&amp;f $ 905/- pmt</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk (avg reuter us$: 871.25 + freight us$: 25 = us$: 896.25 pmt dv us$: 927.50.00 pmt)HsCode :  1511.9030,Unit Value  0.9275  US $</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0.9275  US $</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rbd palm olein in bulk </t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk (avg reuter us$: 877.50 + freight us$: 25 = us$: 902.50 pmt dv us$: 925.00 pmt)HsCode :  1511.9030,Unit Value  0.9250  US $</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0.9250  US $</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rbd palm olein in bulk </t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk (avg reuter us$: 882.50 + freight us$: 25 = us$: 907.50 pmt dv us$: 920 pmt)HsCode :  1511.9030,Unit Value  0.9200  US $</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0.9200  US $</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rbd palm olein in bulk </t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk (avg reuter us$: 882.50 + freight us$: 25 = us$: 907.50 pmt dv us$: 920 pmt)HsCode :  1511.9030,Unit Value  0.9200  US $</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0.9200  US $</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rbd palm olein in bulk </t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk (avg reuter us$: 877.75 + freight us$: 25 = us$: 902.75 pmt dv us$: 927.50 pmt)HsCode :  1511.9030,Unit Value  0.9275  US $</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0.9275  US $</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rbd palm olein in bulk </t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk (avg reuter us$: 871.25 + freight us$: 25 = us$: 896.25 pmt dv us$: 928 pmt)HsCode :  1511.9030,Unit Value  0.9280  US $</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0.9280  US $</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rbd palm olein in bulk </t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk 
+invoice $ 1032/50/- pvma reuter fob $ 986/25/- fright $ 25/- total c&amp;f $ 1011/30/- pmtHsCode :  1511.9030,Unit Value  1.0325  US $</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1.0325  US $</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk 
+invoice $ 1032/50/- pvma reuter fob $ 986/25/- fright $ 25/- total c&amp;f $ 1011/30/- pmt</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk 
+invoice $ 1032/50/- pvma reuter fob $ 986/25/- fright $ 25/- total c&amp;f $ 1011/30/- pmtHsCode :  1511.9030,Unit Value  1.0325  US $</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1.0325  US $</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk 
+invoice $ 1032/50/- pvma reuter fob $ 986/25/- fright $ 25/- total c&amp;f $ 1011/30/- pmt</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Rbd palm olein (in bulk) 
+contract date: 13/02/2024 
+avg reuter price us$:856.25+ freight: 25 = 881.25/- pmt.HsCode :  1511.9030,Unit Value  0.8850  US $</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0.8850  US $</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rbd palm olein </t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Rbd palm olein (in bulk) 
+contract date: 18/04/2024 
+avg reuter price us$:912.50+ freight: 25 = 937.50/- pmt.HsCode :  1511.9030,Unit Value  0.9500  US $</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0.9500  US $</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rbd palm olein </t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Rbd palm olein (in bulk) 
+contract date: 18/04/2024 
+avg reuter price us$:912.50+ freight: 25 = 937.50/- pmt.HsCode :  1511.9030,Unit Value  0.9500  US $</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0.9500  US $</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rbd palm olein </t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk (avg reuter us$: 882.50 + freight us$: 25 = us$: 907.50 pmt dv us$: 920 pmt)HsCode :  1511.9030,Unit Value  0.9200  US $</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0.9200  US $</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rbd palm olein in bulk </t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk (avg reuter us$: 871.25 + freight us$: 25 = us$: 896.25 pmt dv us$: 928 pmt)HsCode :  1511.9030,Unit Value  0.9280  US $</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0.9280  US $</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rbd palm olein in bulk </t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk (avg reuter us$: 877.75 + freight us$: 25 = us$: 902.75 pmt dv us$: 927.50 pmt)HsCode :  1511.9030,Unit Value  0.9275  US $</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0.9275  US $</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rbd palm olein in bulk </t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Rbd palm olein (in bulk) 
+contract date: 06/05/2024.	
+avg reuter price us$: 853.75 freight: 25 = 878.75/- pmt.HsCode :  1511.9030,Unit Value  0.9250  US $</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>0.9250  US $</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rbd palm olein </t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk 
+invoice $ 922/50- pvma reuter fob $ 894/50/- fright $ 25/- total c&amp;f $ 919/50/- pmtHsCode :  1511.9030,Unit Value  0.9225  US $</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0.9225  US $</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk 
+invoice $ 922/50- pvma reuter fob $ 894/50/- fright $ 25/- total c&amp;f $ 919/50/- pmt</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk 
+invoice $ 921/- pvma reuter fob $ 880/- fright $ 25/- total c&amp;f $ 905/- pmtHsCode :  1511.9030,Unit Value  0.9210  US $</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0.9210  US $</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk 
+invoice $ 921/- pvma reuter fob $ 880/- fright $ 25/- total c&amp;f $ 905/- pmt</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk 
+invoice $ 920/- pvma reuter fob $ 877/50/- fright $ 25/- total c&amp;f $ 902/50/-pmtHsCode :  1511.9030,Unit Value  0.9200  US $</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0.9200  US $</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk 
+invoice $ 920/- pvma reuter fob $ 877/50/- fright $ 25/- total c&amp;f $ 902/50/-pmt</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk 
+invoice $ 920/- pvma reuter fob $ 877/50/- fright $ 25/- total c&amp;f $ 902/50/- pmtHsCode :  1511.9030,Unit Value  0.9200  US $</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0.9200  US $</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk 
+invoice $ 920/- pvma reuter fob $ 877/50/- fright $ 25/- total c&amp;f $ 902/50/- pmt</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Rbd palm olein (in bulk) 
+contract date: 10/06/2024 
+avg reuter price us$: 880/- + freight: 25 = 905/- pmt..HsCode :  1511.9030,Unit Value  0.9225  US $</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0.9225  US $</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rbd palm olein </t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Rbd palm olein (in bulk) 
+contract date: 04/06/2024	
+avg reuter price us$: 877.50 + freight: 25 = 902.50/- pmt...HsCode :  1511.9030,Unit Value  0.9200  US $</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0.9200  US $</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rbd palm olein </t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Rbd palm oleinHsCode :  1511.9030,Unit Value  1.2400  US $</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>1.2400  US $</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Rbd palm olein</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk
+invoice $ 937/50/- pvma reuter fob $ 882/50/- fright $ 25/- total c&amp;f $ 907/50/- pmtHsCode :  1511.9030,Unit Value  0.9375  US $</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0.9375  US $</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk
+invoice $ 937/50/- pvma reuter fob $ 882/50/- fright $ 25/- total c&amp;f $ 907/50/- pmt</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Rbd palm olein (in bulk) 
+contract date: 24/06/2024 
+avg reuter price us$: 877.75/- + freight: 25 = 902.75/- pmt..HsCode :  1511.9030,Unit Value  0.9300  US $</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>0.9300  US $</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rbd palm olein </t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk 
+invoice $ 900/- pvma reuter fob $ 853/75/- fright $ 25/- total c&amp;f $ 878/80/- pmtHsCode :  1511.9030,Unit Value  0.9000  US $</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0.9000  US $</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk 
+invoice $ 900/- pvma reuter fob $ 853/75/- fright $ 25/- total c&amp;f $ 878/80/- pmt</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Rbd palm oleinHsCode :  1511.9030,Unit Value  1.2400  US $</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>1.2400  US $</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Rbd palm olein</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk
+invoice $ 937/50/- pvma reuter fob $ 882/50/- fright $ 25/- total c&amp;f $ 907/50/- pmtHsCode :  1511.9030,Unit Value  0.9375  US $</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0.9375  US $</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Rbd palm olein in bulk
+invoice $ 937/50/- pvma reuter fob $ 882/50/- fright $ 25/- total c&amp;f $ 907/50/- pmt</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>1511.9030</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Rbd palm olein (in bulk) 
+contract date: 24/06/2024 
+avg reuter price us$: 877.75/- + freight: 25 = 902.75/- pmt..HsCode :  1511.9030,Unit Value  0.9300  US $</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0.9300  US $</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rbd palm olein </t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
         </is>
       </c>
     </row>
